--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pglyrp1-Trem1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pglyrp1-Trem1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.64937316570467</v>
+        <v>0.7368243333333333</v>
       </c>
       <c r="H2">
-        <v>0.64937316570467</v>
+        <v>2.210473</v>
       </c>
       <c r="I2">
-        <v>0.01126578267309906</v>
+        <v>0.01173863955848454</v>
       </c>
       <c r="J2">
-        <v>0.01126578267309906</v>
+        <v>0.01173863955848454</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>182.92559906448</v>
+        <v>7.990118666666667</v>
       </c>
       <c r="N2">
-        <v>182.92559906448</v>
+        <v>23.970356</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.03913739363311985</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.03913739363311985</v>
       </c>
       <c r="Q2">
-        <v>118.7869753529246</v>
+        <v>5.887313859820889</v>
       </c>
       <c r="R2">
-        <v>118.7869753529246</v>
+        <v>52.985824738388</v>
       </c>
       <c r="S2">
-        <v>0.01126578267309906</v>
+        <v>0.0004594197571177216</v>
       </c>
       <c r="T2">
-        <v>0.01126578267309906</v>
+        <v>0.0004594197571177216</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2934031062256</v>
+        <v>0.7368243333333333</v>
       </c>
       <c r="H3">
-        <v>0.2934031062256</v>
+        <v>2.210473</v>
       </c>
       <c r="I3">
-        <v>0.005090163568374316</v>
+        <v>0.01173863955848454</v>
       </c>
       <c r="J3">
-        <v>0.005090163568374316</v>
+        <v>0.01173863955848454</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>182.92559906448</v>
+        <v>1.226213666666667</v>
       </c>
       <c r="N3">
-        <v>182.92559906448</v>
+        <v>3.678641</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.006006269612847369</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.006006269612847369</v>
       </c>
       <c r="Q3">
-        <v>53.67093897369714</v>
+        <v>0.9035040674658887</v>
       </c>
       <c r="R3">
-        <v>53.67093897369714</v>
+        <v>8.131536607192999</v>
       </c>
       <c r="S3">
-        <v>0.005090163568374316</v>
+        <v>7.050543407629375E-05</v>
       </c>
       <c r="T3">
-        <v>0.005090163568374316</v>
+        <v>7.050543407629374E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -661,57 +661,57 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.56818025532045</v>
+        <v>0.7368243333333333</v>
       </c>
       <c r="H4">
-        <v>1.56818025532045</v>
+        <v>2.210473</v>
       </c>
       <c r="I4">
-        <v>0.02720589467153916</v>
+        <v>0.01173863955848454</v>
       </c>
       <c r="J4">
-        <v>0.02720589467153916</v>
+        <v>0.01173863955848454</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>182.92559906448</v>
+        <v>194.9392826666667</v>
       </c>
       <c r="N4">
-        <v>182.92559906448</v>
+        <v>584.817848</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9548563367540328</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9548563367540328</v>
       </c>
       <c r="Q4">
-        <v>286.8603126455825</v>
+        <v>143.6360069913449</v>
       </c>
       <c r="R4">
-        <v>286.8603126455825</v>
+        <v>1292.724062922104</v>
       </c>
       <c r="S4">
-        <v>0.02720589467153916</v>
+        <v>0.01120871436729053</v>
       </c>
       <c r="T4">
-        <v>0.02720589467153916</v>
+        <v>0.01120871436729052</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.36919286920131</v>
+        <v>0.4529966666666667</v>
       </c>
       <c r="H5">
-        <v>0.36919286920131</v>
+        <v>1.35899</v>
       </c>
       <c r="I5">
-        <v>0.006405017713299601</v>
+        <v>0.007216868866339876</v>
       </c>
       <c r="J5">
-        <v>0.006405017713299601</v>
+        <v>0.007216868866339875</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>182.92559906448</v>
+        <v>7.990118666666667</v>
       </c>
       <c r="N5">
-        <v>182.92559906448</v>
+        <v>23.970356</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.03913739363311985</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.03913739363311985</v>
       </c>
       <c r="Q5">
-        <v>67.53482676898383</v>
+        <v>3.619497122271111</v>
       </c>
       <c r="R5">
-        <v>67.53482676898383</v>
+        <v>32.57547410044</v>
       </c>
       <c r="S5">
-        <v>0.006405017713299601</v>
+        <v>0.0002824494376205511</v>
       </c>
       <c r="T5">
-        <v>0.006405017713299601</v>
+        <v>0.0002824494376205511</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>53.7278239137127</v>
+        <v>0.4529966666666667</v>
       </c>
       <c r="H6">
-        <v>53.7278239137127</v>
+        <v>1.35899</v>
       </c>
       <c r="I6">
-        <v>0.932108100053062</v>
+        <v>0.007216868866339876</v>
       </c>
       <c r="J6">
-        <v>0.932108100053062</v>
+        <v>0.007216868866339875</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>182.92559906448</v>
+        <v>1.226213666666667</v>
       </c>
       <c r="N6">
-        <v>182.92559906448</v>
+        <v>3.678641</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.006006269612847369</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.006006269612847369</v>
       </c>
       <c r="Q6">
-        <v>9828.19437584679</v>
+        <v>0.5554707036211111</v>
       </c>
       <c r="R6">
-        <v>9828.19437584679</v>
+        <v>4.99923633259</v>
       </c>
       <c r="S6">
-        <v>0.932108100053062</v>
+        <v>4.334646017180144E-05</v>
       </c>
       <c r="T6">
-        <v>0.932108100053062</v>
+        <v>4.334646017180144E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,796 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.03322078594295</v>
+        <v>0.4529966666666667</v>
       </c>
       <c r="H7">
-        <v>1.03322078594295</v>
+        <v>1.35899</v>
       </c>
       <c r="I7">
-        <v>0.01792504132062594</v>
+        <v>0.007216868866339876</v>
       </c>
       <c r="J7">
-        <v>0.01792504132062594</v>
+        <v>0.007216868866339875</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>182.92559906448</v>
+        <v>194.9392826666667</v>
       </c>
       <c r="N7">
-        <v>182.92559906448</v>
+        <v>584.817848</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.9548563367540328</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.9548563367540328</v>
       </c>
       <c r="Q7">
-        <v>189.002531234487</v>
+        <v>88.30684525039112</v>
       </c>
       <c r="R7">
-        <v>189.002531234487</v>
+        <v>794.76160725352</v>
       </c>
       <c r="S7">
-        <v>0.01792504132062594</v>
+        <v>0.006891072968547524</v>
       </c>
       <c r="T7">
-        <v>0.01792504132062594</v>
+        <v>0.006891072968547523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.950891666666667</v>
+      </c>
+      <c r="H8">
+        <v>8.852675</v>
+      </c>
+      <c r="I8">
+        <v>0.04701182097831873</v>
+      </c>
+      <c r="J8">
+        <v>0.04701182097831872</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>7.990118666666667</v>
+      </c>
+      <c r="N8">
+        <v>23.970356</v>
+      </c>
+      <c r="O8">
+        <v>0.03913739363311985</v>
+      </c>
+      <c r="P8">
+        <v>0.03913739363311985</v>
+      </c>
+      <c r="Q8">
+        <v>23.57797458914445</v>
+      </c>
+      <c r="R8">
+        <v>212.2017713023</v>
+      </c>
+      <c r="S8">
+        <v>0.001839920143038222</v>
+      </c>
+      <c r="T8">
+        <v>0.001839920143038221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.950891666666667</v>
+      </c>
+      <c r="H9">
+        <v>8.852675</v>
+      </c>
+      <c r="I9">
+        <v>0.04701182097831873</v>
+      </c>
+      <c r="J9">
+        <v>0.04701182097831872</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>1.226213666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.678641</v>
+      </c>
+      <c r="O9">
+        <v>0.006006269612847369</v>
+      </c>
+      <c r="P9">
+        <v>0.006006269612847369</v>
+      </c>
+      <c r="Q9">
+        <v>3.618423690519444</v>
+      </c>
+      <c r="R9">
+        <v>32.565813214675</v>
+      </c>
+      <c r="S9">
+        <v>0.0002823656717866962</v>
+      </c>
+      <c r="T9">
+        <v>0.0002823656717866962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.950891666666667</v>
+      </c>
+      <c r="H10">
+        <v>8.852675</v>
+      </c>
+      <c r="I10">
+        <v>0.04701182097831873</v>
+      </c>
+      <c r="J10">
+        <v>0.04701182097831872</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>194.9392826666667</v>
+      </c>
+      <c r="N10">
+        <v>584.817848</v>
+      </c>
+      <c r="O10">
+        <v>0.9548563367540328</v>
+      </c>
+      <c r="P10">
+        <v>0.9548563367540328</v>
+      </c>
+      <c r="Q10">
+        <v>575.2447047270445</v>
+      </c>
+      <c r="R10">
+        <v>5177.2023425434</v>
+      </c>
+      <c r="S10">
+        <v>0.04488953516349381</v>
+      </c>
+      <c r="T10">
+        <v>0.0448895351634938</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.6055510000000001</v>
+      </c>
+      <c r="H11">
+        <v>1.816653</v>
+      </c>
+      <c r="I11">
+        <v>0.00964727222175508</v>
+      </c>
+      <c r="J11">
+        <v>0.00964727222175508</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>7.990118666666667</v>
+      </c>
+      <c r="N11">
+        <v>23.970356</v>
+      </c>
+      <c r="O11">
+        <v>0.03913739363311985</v>
+      </c>
+      <c r="P11">
+        <v>0.03913739363311985</v>
+      </c>
+      <c r="Q11">
+        <v>4.838424348718668</v>
+      </c>
+      <c r="R11">
+        <v>43.545819138468</v>
+      </c>
+      <c r="S11">
+        <v>0.0003775690904286912</v>
+      </c>
+      <c r="T11">
+        <v>0.0003775690904286912</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.6055510000000001</v>
+      </c>
+      <c r="H12">
+        <v>1.816653</v>
+      </c>
+      <c r="I12">
+        <v>0.00964727222175508</v>
+      </c>
+      <c r="J12">
+        <v>0.00964727222175508</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>1.226213666666667</v>
+      </c>
+      <c r="N12">
+        <v>3.678641</v>
+      </c>
+      <c r="O12">
+        <v>0.006006269612847369</v>
+      </c>
+      <c r="P12">
+        <v>0.006006269612847369</v>
+      </c>
+      <c r="Q12">
+        <v>0.7425349120636666</v>
+      </c>
+      <c r="R12">
+        <v>6.682814208573</v>
+      </c>
+      <c r="S12">
+        <v>5.794411799239406E-05</v>
+      </c>
+      <c r="T12">
+        <v>5.794411799239406E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.6055510000000001</v>
+      </c>
+      <c r="H13">
+        <v>1.816653</v>
+      </c>
+      <c r="I13">
+        <v>0.00964727222175508</v>
+      </c>
+      <c r="J13">
+        <v>0.00964727222175508</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>194.9392826666667</v>
+      </c>
+      <c r="N13">
+        <v>584.817848</v>
+      </c>
+      <c r="O13">
+        <v>0.9548563367540328</v>
+      </c>
+      <c r="P13">
+        <v>0.9548563367540328</v>
+      </c>
+      <c r="Q13">
+        <v>118.0456775580827</v>
+      </c>
+      <c r="R13">
+        <v>1062.411098022744</v>
+      </c>
+      <c r="S13">
+        <v>0.009211759013333995</v>
+      </c>
+      <c r="T13">
+        <v>0.009211759013333995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>56.73461133333333</v>
+      </c>
+      <c r="H14">
+        <v>170.203834</v>
+      </c>
+      <c r="I14">
+        <v>0.9038615078302861</v>
+      </c>
+      <c r="J14">
+        <v>0.9038615078302861</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>7.990118666666667</v>
+      </c>
+      <c r="N14">
+        <v>23.970356</v>
+      </c>
+      <c r="O14">
+        <v>0.03913739363311985</v>
+      </c>
+      <c r="P14">
+        <v>0.03913739363311985</v>
+      </c>
+      <c r="Q14">
+        <v>453.316277060545</v>
+      </c>
+      <c r="R14">
+        <v>4079.846493544904</v>
+      </c>
+      <c r="S14">
+        <v>0.03537478362177914</v>
+      </c>
+      <c r="T14">
+        <v>0.03537478362177914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>56.73461133333333</v>
+      </c>
+      <c r="H15">
+        <v>170.203834</v>
+      </c>
+      <c r="I15">
+        <v>0.9038615078302861</v>
+      </c>
+      <c r="J15">
+        <v>0.9038615078302861</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>1.226213666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.678641</v>
+      </c>
+      <c r="O15">
+        <v>0.006006269612847369</v>
+      </c>
+      <c r="P15">
+        <v>0.006006269612847369</v>
+      </c>
+      <c r="Q15">
+        <v>69.56875578995488</v>
+      </c>
+      <c r="R15">
+        <v>626.118802109594</v>
+      </c>
+      <c r="S15">
+        <v>0.005428835908703452</v>
+      </c>
+      <c r="T15">
+        <v>0.005428835908703452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>56.73461133333333</v>
+      </c>
+      <c r="H16">
+        <v>170.203834</v>
+      </c>
+      <c r="I16">
+        <v>0.9038615078302861</v>
+      </c>
+      <c r="J16">
+        <v>0.9038615078302861</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>194.9392826666667</v>
+      </c>
+      <c r="N16">
+        <v>584.817848</v>
+      </c>
+      <c r="O16">
+        <v>0.9548563367540328</v>
+      </c>
+      <c r="P16">
+        <v>0.9548563367540328</v>
+      </c>
+      <c r="Q16">
+        <v>11059.80443569214</v>
+      </c>
+      <c r="R16">
+        <v>99538.23992122924</v>
+      </c>
+      <c r="S16">
+        <v>0.8630578882998035</v>
+      </c>
+      <c r="T16">
+        <v>0.8630578882998035</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.288267</v>
+      </c>
+      <c r="H17">
+        <v>3.864801</v>
+      </c>
+      <c r="I17">
+        <v>0.0205238905448158</v>
+      </c>
+      <c r="J17">
+        <v>0.0205238905448158</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>7.990118666666667</v>
+      </c>
+      <c r="N17">
+        <v>23.970356</v>
+      </c>
+      <c r="O17">
+        <v>0.03913739363311985</v>
+      </c>
+      <c r="P17">
+        <v>0.03913739363311985</v>
+      </c>
+      <c r="Q17">
+        <v>10.29340620435067</v>
+      </c>
+      <c r="R17">
+        <v>92.64065583915601</v>
+      </c>
+      <c r="S17">
+        <v>0.0008032515831355223</v>
+      </c>
+      <c r="T17">
+        <v>0.0008032515831355223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.288267</v>
+      </c>
+      <c r="H18">
+        <v>3.864801</v>
+      </c>
+      <c r="I18">
+        <v>0.0205238905448158</v>
+      </c>
+      <c r="J18">
+        <v>0.0205238905448158</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>1.226213666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.678641</v>
+      </c>
+      <c r="O18">
+        <v>0.006006269612847369</v>
+      </c>
+      <c r="P18">
+        <v>0.006006269612847369</v>
+      </c>
+      <c r="Q18">
+        <v>1.579690601715667</v>
+      </c>
+      <c r="R18">
+        <v>14.217215415441</v>
+      </c>
+      <c r="S18">
+        <v>0.0001232720201167326</v>
+      </c>
+      <c r="T18">
+        <v>0.0001232720201167326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.288267</v>
+      </c>
+      <c r="H19">
+        <v>3.864801</v>
+      </c>
+      <c r="I19">
+        <v>0.0205238905448158</v>
+      </c>
+      <c r="J19">
+        <v>0.0205238905448158</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>194.9392826666667</v>
+      </c>
+      <c r="N19">
+        <v>584.817848</v>
+      </c>
+      <c r="O19">
+        <v>0.9548563367540328</v>
+      </c>
+      <c r="P19">
+        <v>0.9548563367540328</v>
+      </c>
+      <c r="Q19">
+        <v>251.1338448631387</v>
+      </c>
+      <c r="R19">
+        <v>2260.204603768248</v>
+      </c>
+      <c r="S19">
+        <v>0.01959736694156354</v>
+      </c>
+      <c r="T19">
+        <v>0.01959736694156354</v>
       </c>
     </row>
   </sheetData>
